--- a/Sura/DataSource - Endoso Inclusion de Riesgo.xlsx
+++ b/Sura/DataSource - Endoso Inclusion de Riesgo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irina Storozuk\Documents\Ranorex\RanorexStudio Projects\Sura\Sura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5445619-AF0B-400C-861D-8076A0D70BDA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5AFD7DD-ACCF-4109-A979-976FA3E26C77}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{76243EE3-CE6A-451D-A9F7-26C55AC9CAF8}"/>
   </bookViews>
@@ -39,21 +39,9 @@
     <t>Contrasenia</t>
   </si>
   <si>
-    <t>ssurgwsoadev4-oci.opc.oracleoutsourcing.com</t>
-  </si>
-  <si>
-    <t>https://ssurgwsoadev4-oci.opc.oracleoutsourcing.com/pc/PolicyCenter.do</t>
-  </si>
-  <si>
     <t>su</t>
   </si>
   <si>
-    <t>gw</t>
-  </si>
-  <si>
-    <t>04104013802</t>
-  </si>
-  <si>
     <t>NumPoliza</t>
   </si>
   <si>
@@ -61,6 +49,18 @@
   </si>
   <si>
     <t>Inclusión de Riesgo</t>
+  </si>
+  <si>
+    <t>silverarrow</t>
+  </si>
+  <si>
+    <t>https://i-preproducciongestion.segurossura.com.ar/pc/PolicyCenter.do</t>
+  </si>
+  <si>
+    <t>i-preproducciongestion.segurossura.com.ar</t>
+  </si>
+  <si>
+    <t>04104013552</t>
   </si>
 </sst>
 </file>
@@ -434,7 +434,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -453,36 +453,33 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
       <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
         <v>7</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{AE7683AA-266C-4601-A2CD-AC7639590014}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Sura/DataSource - Endoso Inclusion de Riesgo.xlsx
+++ b/Sura/DataSource - Endoso Inclusion de Riesgo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irina Storozuk\Documents\Ranorex\RanorexStudio Projects\Sura\Sura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5AFD7DD-ACCF-4109-A979-976FA3E26C77}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A845E598-916C-4702-A36B-28B924A9F0A5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{76243EE3-CE6A-451D-A9F7-26C55AC9CAF8}"/>
   </bookViews>
@@ -51,16 +51,16 @@
     <t>Inclusión de Riesgo</t>
   </si>
   <si>
-    <t>silverarrow</t>
-  </si>
-  <si>
-    <t>https://i-preproducciongestion.segurossura.com.ar/pc/PolicyCenter.do</t>
-  </si>
-  <si>
-    <t>i-preproducciongestion.segurossura.com.ar</t>
-  </si>
-  <si>
-    <t>04104013552</t>
+    <t>04104016708</t>
+  </si>
+  <si>
+    <t>ssurgwsoadev4-oci.opc.oracleoutsourcing.com</t>
+  </si>
+  <si>
+    <t>https://ssurgwsoadev4-oci.opc.oracleoutsourcing.com/pc/PolicyCenter.do</t>
+  </si>
+  <si>
+    <t>gw</t>
   </si>
 </sst>
 </file>
@@ -434,7 +434,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -461,25 +461,28 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
       <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="F2" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{0ED2B940-E186-4620-BE20-6F4158DC39F9}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>